--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2497.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2497.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.57085783189798</v>
+        <v>0.8741305470466614</v>
       </c>
       <c r="B1">
-        <v>3.906019539823009</v>
+        <v>0.6899652481079102</v>
       </c>
       <c r="C1">
-        <v>3.423633218704705</v>
+        <v>3.94738507270813</v>
       </c>
       <c r="D1">
-        <v>2.916551101021126</v>
+        <v>2.984235048294067</v>
       </c>
       <c r="E1">
-        <v>3.031870491526394</v>
+        <v>0.8164118528366089</v>
       </c>
     </row>
   </sheetData>
